--- a/Cottonwood Survey.xlsx
+++ b/Cottonwood Survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qm43\Documents\GitHub\Thesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C8ECF0-FE2C-4DBA-A5E3-E4BF0A22E488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB023C0F-5F91-460D-87EB-4B3B5714DEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{221E6686-953D-4F26-8E5A-980C41A07E99}"/>
   </bookViews>
   <sheets>
     <sheet name="Beasley 11-10-23" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="57">
   <si>
     <t>LB1</t>
   </si>
@@ -133,9 +133,6 @@
     <t>CH9</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
     <t>Diameter</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>CH10</t>
-  </si>
-  <si>
-    <t>STD</t>
   </si>
   <si>
     <t>C10</t>
@@ -230,7 +224,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,14 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -282,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,11 +278,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -324,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -450,21 +431,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -475,19 +441,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,106 +605,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -768,67 +630,37 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="13" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="5" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="5" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="2" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="26" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="28" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="29" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="4" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
-    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
-    <cellStyle name="20% - Accent4" xfId="5" builtinId="42"/>
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42"/>
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -841,2236 +673,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Childs</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> RAP Seedling Densities</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Nov-23</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Densities!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>CH1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CH2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CH3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CH4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CH5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CH6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CH7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CH8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CH9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CH10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Densities!$B$2:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20.842105263157894</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22734420291227925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3602264685067231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.789808917197451</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0863411181882512</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.2643312101910826</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.323425336164188</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39.490445859872608</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>35.244161358811041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35.987261146496813</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E828-48C1-9406-5C6F673B22CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Jun-24</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Densities!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>CH1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CH2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CH3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CH4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CH5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CH6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CH7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CH8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CH9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CH10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Densities!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>10.736842105263158</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.22734420291227925</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.3602264685067231</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.197452229299362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5109695682944091</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.4235668789808917</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.6709129511677281</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>56.687898089171973</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>39.490445859872615</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>47.452229299363054</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E828-48C1-9406-5C6F673B22CE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1201999007"/>
-        <c:axId val="1201991327"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1201999007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1201991327"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1201991327"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Density (seedlings/m2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1201999007"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Beasley RAP Seedling Densities</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Nov-23</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Densities!$F$2:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>LB1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LB2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LB3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LB4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LB5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LB6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LB7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LB8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LB9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LB10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Densities!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>2.2292993630573248</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5477707006369426</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.2941176470588234</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3602264685067231</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4154281670205235</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1942675159235667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8216560509554141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.9355980184005661</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.2173913043478262</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1001-4CBD-AC55-DDF182A8EC70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Jun-24</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-                <a:lumOff val="40000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Densities!$F$2:$F$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>LB1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>LB2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>LB3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>LB4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>LB5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>LB6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>LB7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>LB8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>LB9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LB10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Densities!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.63694267515923564</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.5477707006369426</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6470588235294117</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3694267515923562</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2738853503184713</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.63694267515923564</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3089171974522293</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0679405520169851</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.91304347826086951</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1001-4CBD-AC55-DDF182A8EC70}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1198370719"/>
-        <c:axId val="1198379359"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1198370719"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="in"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1198379359"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1198379359"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Density (seedlings/m2)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1198370719"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-        <c:majorUnit val="5"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1121834</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>48683</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEA6558B-5824-C36D-57AE-DBC4DE699DF4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>211667</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>67733</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1534584</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>112183</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5162C405-90FD-E8B4-821A-8B4EE2153147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3430,61 +1032,61 @@
         <v>31</v>
       </c>
       <c r="AP1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AQ1">
         <v>2.2292993630573248</v>
       </c>
       <c r="AS1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AT1">
         <v>2.5477707006369426</v>
       </c>
       <c r="AW1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AX1">
         <v>7.2941176470588234</v>
       </c>
       <c r="BA1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BB1">
         <v>6.2</v>
       </c>
       <c r="BD1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BE1">
         <v>7.3602264685067231</v>
       </c>
       <c r="BG1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BH1">
         <v>1.4154281670205235</v>
       </c>
       <c r="BJ1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BK1">
         <v>1.1942675159235667</v>
       </c>
       <c r="BM1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BN1">
         <v>3.8216560509554141</v>
       </c>
       <c r="BP1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BQ1">
         <v>6.9355980184005661</v>
       </c>
       <c r="BS1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BT1">
         <v>2.2173913043478262</v>
@@ -3657,10 +1259,10 @@
         <v>6</v>
       </c>
       <c r="AO3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AP3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:72" x14ac:dyDescent="0.25">
@@ -3861,42 +1463,42 @@
     </row>
     <row r="7" spans="1:72" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6">
         <f>B3/B4</f>
         <v>2.2292993630573248</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <f>D3/D5</f>
         <v>2.5477707006369426</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6">
         <f>H2/H4</f>
         <v>7.2941176470588234</v>
       </c>
       <c r="K7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="6">
         <f>L2/L4</f>
         <v>6.2</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O7" s="6">
         <f>O2/O3</f>
         <v>7.3602264685067231</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R7" s="6">
         <f>R2/R4</f>
@@ -3904,28 +1506,28 @@
       </c>
       <c r="S7"/>
       <c r="T7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U7" s="6">
         <f>U2/U3</f>
         <v>1.1942675159235667</v>
       </c>
       <c r="W7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X7" s="6">
         <f>X2/X3</f>
         <v>3.8216560509554141</v>
       </c>
       <c r="Z7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA7" s="6">
         <f>AA2/AA3</f>
         <v>6.9355980184005661</v>
       </c>
       <c r="AC7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD7">
         <f>AD2/AD4</f>
@@ -10850,7 +8452,7 @@
         <v>83</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
@@ -10950,10 +8552,10 @@
         <v>27</v>
       </c>
       <c r="AK3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AL3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -11040,7 +8642,7 @@
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <f>B4/B3</f>
@@ -11123,70 +8725,70 @@
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <f>C2/B4*4</f>
         <v>20.842105263157894</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <f>E3/E4</f>
         <v>0.22734420291227925</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <f>H2/H3</f>
         <v>7.3602264685067231</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <f>K2/K3</f>
         <v>18.789808917197451</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="6">
         <f>N2/N3</f>
         <v>6.0863411181882512</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <f>Q2/Q4</f>
         <v>3.2643312101910826</v>
       </c>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T6" s="6">
         <f>T2/T3</f>
         <v>11.323425336164188</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W6">
         <f>W2/W3</f>
         <v>39.490445859872608</v>
       </c>
       <c r="Y6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="6">
         <f>Z2/Z3</f>
         <v>35.244161358811041</v>
       </c>
       <c r="AB6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC6">
         <f>AC2/AC3</f>
@@ -21585,14 +19187,14 @@
     </row>
     <row r="6" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="6">
         <f>B2/B3</f>
         <v>0.63694267515923564</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <f>D2/D4</f>
@@ -21600,14 +19202,14 @@
       </c>
       <c r="E6" s="7"/>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="6">
         <f>H1/H3</f>
         <v>2.6470588235294117</v>
       </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="6">
         <f>L1/L3</f>
@@ -21615,7 +19217,7 @@
       </c>
       <c r="M6" s="7"/>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O6" s="6">
         <f>O1/O2</f>
@@ -21623,14 +19225,14 @@
       </c>
       <c r="P6" s="7"/>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" s="6">
         <f>R1/R3</f>
         <v>1.2738853503184713</v>
       </c>
       <c r="T6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U6" s="6">
         <f>U1/U2</f>
@@ -21638,7 +19240,7 @@
       </c>
       <c r="V6" s="7"/>
       <c r="W6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X6" s="6">
         <f>X1/X2</f>
@@ -21646,14 +19248,14 @@
       </c>
       <c r="Y6" s="7"/>
       <c r="Z6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AA6" s="6">
         <f>AA1/AA2</f>
         <v>8.0679405520169851</v>
       </c>
       <c r="AC6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD6">
         <f>AD1/AD3</f>
@@ -23700,7 +21302,7 @@
         <v>93</v>
       </c>
       <c r="AA2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="s">
         <v>18</v>
@@ -23710,7 +21312,7 @@
         <v>149</v>
       </c>
       <c r="AE2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF2">
         <f>SUM(AC2,Z2,W2,T2,Q2,N2,K2,H2,E3,C2)</f>
@@ -23864,7 +21466,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <f>B4/B3</f>
@@ -23937,42 +21539,42 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <f>C2/B4*4</f>
         <v>10.736842105263158</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <f>E3/E4</f>
         <v>0.22734420291227925</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H6">
         <f>H2/H3</f>
         <v>7.3602264685067231</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6">
         <f>K2/K3</f>
         <v>17.197452229299362</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N6" s="6">
         <f>N2/N3</f>
         <v>6.5109695682944091</v>
       </c>
       <c r="P6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6">
         <f>Q2/Q4</f>
@@ -23980,14 +21582,14 @@
       </c>
       <c r="R6" s="7"/>
       <c r="S6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T6" s="6">
         <f>T2/T3</f>
         <v>4.6709129511677281</v>
       </c>
       <c r="V6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W6">
         <f>W2/W3</f>
@@ -23995,14 +21597,14 @@
       </c>
       <c r="X6" s="7"/>
       <c r="Y6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Z6" s="6">
         <f>Z2/Z3</f>
         <v>39.490445859872615</v>
       </c>
       <c r="AB6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AC6">
         <f>AC2/AC3</f>
@@ -28697,8 +26299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285519EE-B10C-45CF-9970-A060D6349D1C}">
   <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28711,16 +26313,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -33936,16 +31538,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -43901,10 +41503,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -46033,16 +43635,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -53332,56 +50934,55 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CBE31A-F64E-47D3-BA26-D625CBC69259}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="3" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32">
+        <v>45241</v>
+      </c>
+      <c r="C1" s="32">
+        <v>45449</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="33">
+      <c r="F1" s="32">
         <v>45241</v>
       </c>
-      <c r="C1" s="33">
+      <c r="G1" s="33">
         <v>45449</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="33">
-        <v>45241</v>
-      </c>
-      <c r="H1" s="34">
-        <v>45449</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="H1" s="34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="17">
@@ -53390,39 +50991,38 @@
       <c r="C2" s="17">
         <v>10.736842105263158</v>
       </c>
-      <c r="D2" s="44">
+      <c r="D2" s="19">
         <f>(C2-B2)/B2*100</f>
         <v>-48.484848484848484</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="F2" s="16">
         <v>2.2292993630573248</v>
       </c>
-      <c r="H2" s="19">
+      <c r="G2" s="18">
         <v>0.63694267515923564</v>
       </c>
-      <c r="I2" s="31">
-        <f>(H2-G2)/G2*100</f>
+      <c r="H2" s="30">
+        <f>(G2-F2)/F2*100</f>
         <v>-71.428571428571431</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>50</v>
+      <c r="K2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="23">
+        <v>45231</v>
       </c>
       <c r="M2" s="24">
-        <v>45231</v>
-      </c>
-      <c r="N2" s="25">
         <v>45467</v>
       </c>
-      <c r="O2" s="26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="N2" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="17">
@@ -53431,40 +51031,39 @@
       <c r="C3" s="17">
         <v>0.22734420291227925</v>
       </c>
-      <c r="D3" s="44">
-        <f t="shared" ref="D3:D13" si="0">(C3-B3)/B3*100</f>
+      <c r="D3" s="19">
+        <f t="shared" ref="D3:D11" si="0">(C3-B3)/B3*100</f>
         <v>0</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="16">
+      <c r="E3" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16">
         <v>2.5477707006369426</v>
       </c>
-      <c r="H3" s="19">
+      <c r="G3" s="18">
         <v>2.5477707006369426</v>
       </c>
-      <c r="I3" s="31">
-        <f t="shared" ref="I3:I13" si="1">(H3-G3)/G3*100</f>
+      <c r="H3" s="30">
+        <f t="shared" ref="H3:H11" si="1">(G3-F3)/F3*100</f>
         <v>0</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>46</v>
+      <c r="K3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="20">
+        <v>32.1</v>
       </c>
       <c r="M3" s="21">
-        <v>32.1</v>
-      </c>
-      <c r="N3" s="22">
         <v>41.78</v>
       </c>
-      <c r="O3" s="31">
-        <f>(N3-M3)/M3*100</f>
+      <c r="N3" s="30">
+        <f>(M3-L3)/L3*100</f>
         <v>30.155763239875387</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="17">
@@ -53473,40 +51072,39 @@
       <c r="C4" s="17">
         <v>7.3602264685067231</v>
       </c>
-      <c r="D4" s="44">
+      <c r="D4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16">
+      <c r="F4" s="16">
         <v>7.2941176470588234</v>
       </c>
-      <c r="H4" s="19">
+      <c r="G4" s="18">
         <v>2.6470588235294117</v>
       </c>
-      <c r="I4" s="31">
+      <c r="H4" s="30">
         <f t="shared" si="1"/>
         <v>-63.70967741935484</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>49</v>
+      <c r="K4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="20">
+        <v>2.87</v>
       </c>
       <c r="M4" s="21">
-        <v>2.87</v>
-      </c>
-      <c r="N4" s="22">
         <v>4.54</v>
       </c>
-      <c r="O4" s="31">
-        <f t="shared" ref="O4:O6" si="2">(N4-M4)/M4*100</f>
+      <c r="N4" s="30">
+        <f t="shared" ref="N4:N6" si="2">(M4-L4)/L4*100</f>
         <v>58.188153310104532</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="17">
@@ -53515,40 +51113,39 @@
       <c r="C5" s="17">
         <v>17.197452229299362</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="19">
         <f t="shared" si="0"/>
         <v>-8.4745762711864412</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="16">
+      <c r="F5" s="16">
         <v>6.2</v>
       </c>
-      <c r="H5" s="19">
-        <v>3</v>
-      </c>
-      <c r="I5" s="31">
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
+      <c r="H5" s="30">
         <f t="shared" si="1"/>
         <v>-51.612903225806448</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>47</v>
+      <c r="K5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="20">
+        <v>22.07</v>
       </c>
       <c r="M5" s="21">
-        <v>22.07</v>
-      </c>
-      <c r="N5" s="22">
         <v>28.44</v>
       </c>
-      <c r="O5" s="31">
+      <c r="N5" s="30">
         <f t="shared" si="2"/>
         <v>28.862709560489357</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="17">
@@ -53557,40 +51154,39 @@
       <c r="C6" s="17">
         <v>6.5109695682944091</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="19">
         <f t="shared" si="0"/>
         <v>6.9767441860465258</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="16">
+      <c r="F6" s="16">
         <v>7.3602264685067231</v>
       </c>
-      <c r="H6" s="19">
+      <c r="G6" s="18">
         <v>6.3694267515923562</v>
       </c>
-      <c r="I6" s="31">
+      <c r="H6" s="30">
         <f t="shared" si="1"/>
         <v>-13.461538461538467</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>48</v>
+      <c r="K6" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="28">
+        <v>2.54</v>
       </c>
       <c r="M6" s="29">
-        <v>2.54</v>
+        <v>3.11</v>
       </c>
       <c r="N6" s="30">
-        <v>3.11</v>
-      </c>
-      <c r="O6" s="31">
         <f t="shared" si="2"/>
         <v>22.440944881889756</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="17">
@@ -53599,27 +51195,26 @@
       <c r="C7" s="17">
         <v>3.4235668789808917</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="19">
         <f t="shared" si="0"/>
         <v>4.878048780487811</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="16">
+      <c r="F7" s="16">
         <v>1.4154281670205235</v>
       </c>
-      <c r="H7" s="19">
+      <c r="G7" s="18">
         <v>1.2738853503184713</v>
       </c>
-      <c r="I7" s="31">
+      <c r="H7" s="30">
         <f t="shared" si="1"/>
         <v>-9.9999999999999929</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="17">
@@ -53628,27 +51223,26 @@
       <c r="C8" s="17">
         <v>4.6709129511677281</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="19">
         <f t="shared" si="0"/>
         <v>-58.749999999999993</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16">
+      <c r="F8" s="16">
         <v>1.1942675159235667</v>
       </c>
-      <c r="H8" s="19">
+      <c r="G8" s="18">
         <v>0.63694267515923564</v>
       </c>
-      <c r="I8" s="31">
+      <c r="H8" s="30">
         <f t="shared" si="1"/>
         <v>-46.666666666666664</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="36" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="17">
@@ -53657,27 +51251,26 @@
       <c r="C9" s="17">
         <v>56.687898089171973</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="19">
         <f t="shared" si="0"/>
         <v>43.548387096774206</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="36" t="s">
+      <c r="E9" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="16">
+      <c r="F9" s="16">
         <v>3.8216560509554141</v>
       </c>
-      <c r="H9" s="19">
+      <c r="G9" s="18">
         <v>2.3089171974522293</v>
       </c>
-      <c r="I9" s="31">
+      <c r="H9" s="30">
         <f t="shared" si="1"/>
         <v>-39.583333333333329</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="36" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="17">
@@ -53686,28 +51279,27 @@
       <c r="C10" s="17">
         <v>39.490445859872615</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="19">
         <f t="shared" si="0"/>
         <v>12.048192771084345</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="36" t="s">
+      <c r="E10" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="16">
+      <c r="F10" s="16">
         <v>6.9355980184005661</v>
       </c>
-      <c r="H10" s="19">
+      <c r="G10" s="18">
         <v>8.0679405520169851</v>
       </c>
-      <c r="I10" s="31">
+      <c r="H10" s="30">
         <f t="shared" si="1"/>
         <v>16.326530612244898</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>36</v>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="B11" s="17">
         <v>35.987261146496813</v>
@@ -53715,282 +51307,27 @@
       <c r="C11" s="17">
         <v>47.452229299363054</v>
       </c>
-      <c r="D11" s="44">
+      <c r="D11" s="19">
         <f t="shared" si="0"/>
         <v>31.858407079646017</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="36" t="s">
+      <c r="E11" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="16">
+      <c r="F11" s="16">
         <v>2.2173913043478262</v>
       </c>
-      <c r="H11" s="19">
+      <c r="G11" s="18">
         <v>0.91304347826086951</v>
       </c>
-      <c r="I11" s="31">
+      <c r="H11" s="30">
         <f t="shared" si="1"/>
         <v>-58.82352941176471</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="45">
-        <f>GEOMEAN(B2:B11)</f>
-        <v>9.7012910729168436</v>
-      </c>
-      <c r="C12" s="45">
-        <f>AVERAGE(C2:C11)</f>
-        <v>19.375788765283222</v>
-      </c>
-      <c r="D12" s="46">
-        <f t="shared" si="0"/>
-        <v>99.723816342081889</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="38">
-        <f>GEOMEAN(G2:G11)</f>
-        <v>3.3680239158136192</v>
-      </c>
-      <c r="H12" s="18">
-        <f>AVERAGE(H2:H11)</f>
-        <v>2.8401928204125739</v>
-      </c>
-      <c r="I12" s="39">
-        <f t="shared" si="1"/>
-        <v>-15.671833353758599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="47">
-        <f>_xlfn.STDEV.P(B2:B11)</f>
-        <v>13.870744455016167</v>
-      </c>
-      <c r="C13" s="47">
-        <f>_xlfn.STDEV.P(C2:C11)</f>
-        <v>19.523583149638899</v>
-      </c>
-      <c r="D13" s="48">
-        <f t="shared" si="0"/>
-        <v>40.753679176739929</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="41">
-        <f>_xlfn.STDEV.P(G2:G11)</f>
-        <v>2.4178143018064269</v>
-      </c>
-      <c r="H13" s="41">
-        <f>_xlfn.STDEV.P(H2:H11)</f>
-        <v>2.3683599415696399</v>
-      </c>
-      <c r="I13" s="42">
-        <f t="shared" si="1"/>
-        <v>-2.04541598582811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16">
-        <v>2.2292993630573248</v>
-      </c>
-      <c r="C14" s="19">
-        <v>0.63694267515923564</v>
-      </c>
-      <c r="D14" s="31">
-        <f>(C14-B14)/B14*100</f>
-        <v>-71.428571428571431</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="16">
-        <v>2.5477707006369426</v>
-      </c>
-      <c r="C15" s="19">
-        <v>2.5477707006369426</v>
-      </c>
-      <c r="D15" s="31">
-        <f t="shared" ref="D15:D25" si="3">(C15-B15)/B15*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="16">
-        <v>7.2941176470588234</v>
-      </c>
-      <c r="C16" s="19">
-        <v>2.6470588235294117</v>
-      </c>
-      <c r="D16" s="31">
-        <f t="shared" si="3"/>
-        <v>-63.70967741935484</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="16">
-        <v>6.2</v>
-      </c>
-      <c r="C17" s="19">
-        <v>3</v>
-      </c>
-      <c r="D17" s="31">
-        <f t="shared" si="3"/>
-        <v>-51.612903225806448</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="16">
-        <v>7.3602264685067231</v>
-      </c>
-      <c r="C18" s="19">
-        <v>6.3694267515923562</v>
-      </c>
-      <c r="D18" s="31">
-        <f t="shared" si="3"/>
-        <v>-13.461538461538467</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="16">
-        <v>1.4154281670205235</v>
-      </c>
-      <c r="C19" s="19">
-        <v>1.2738853503184713</v>
-      </c>
-      <c r="D19" s="31">
-        <f t="shared" si="3"/>
-        <v>-9.9999999999999929</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1.1942675159235667</v>
-      </c>
-      <c r="C20" s="19">
-        <v>0.63694267515923564</v>
-      </c>
-      <c r="D20" s="31">
-        <f t="shared" si="3"/>
-        <v>-46.666666666666664</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="16">
-        <v>3.8216560509554141</v>
-      </c>
-      <c r="C21" s="19">
-        <v>2.3089171974522293</v>
-      </c>
-      <c r="D21" s="31">
-        <f t="shared" si="3"/>
-        <v>-39.583333333333329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="16">
-        <v>6.9355980184005661</v>
-      </c>
-      <c r="C22" s="19">
-        <v>8.0679405520169851</v>
-      </c>
-      <c r="D22" s="31">
-        <f t="shared" si="3"/>
-        <v>16.326530612244898</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="16">
-        <v>2.2173913043478262</v>
-      </c>
-      <c r="C23" s="19">
-        <v>0.91304347826086951</v>
-      </c>
-      <c r="D23" s="31">
-        <f t="shared" si="3"/>
-        <v>-58.82352941176471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="38">
-        <f>GEOMEAN(B14:B23)</f>
-        <v>3.3680239158136192</v>
-      </c>
-      <c r="C24" s="18">
-        <f>AVERAGE(C14:C23)</f>
-        <v>2.8401928204125739</v>
-      </c>
-      <c r="D24" s="39">
-        <f t="shared" si="3"/>
-        <v>-15.671833353758599</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="B25" s="41">
-        <f>_xlfn.STDEV.P(B14:B23)</f>
-        <v>2.4178143018064269</v>
-      </c>
-      <c r="C25" s="41">
-        <f>_xlfn.STDEV.P(C14:C23)</f>
-        <v>2.3683599415696399</v>
-      </c>
-      <c r="D25" s="42">
-        <f t="shared" si="3"/>
-        <v>-2.04541598582811</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="B12:C13 G12:H13" formulaRange="1"/>
-  </ignoredErrors>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>